--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -471,6 +471,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -421,20 +421,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>children</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -446,29 +446,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Linnet</t>
+          <t>Moscow</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sussan</t>
+          <t>Saint-Petersburg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -476,30 +476,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Yaroslavl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Gabriella</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>18</t>
         </is>
       </c>
     </row>
